--- a/Industry/201612-201908/HKD/MILLION/Analysis_133_20.1 - Printing (SITC 892) in 5-digit SITC Codes_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_133_20.1 - Printing (SITC 892) in 5-digit SITC Codes_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="1920" yWindow="1644"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -29039,6 +29040,919 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="10"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="9"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="9"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="10"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="9"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="10"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" t="n">
+        <v>17168.841</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15650.77</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-8.842000000000001</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10515.52</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15615.752</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.224</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10905.167</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.705</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8333.502</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7467.468</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-10.392</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5030.56</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7453.92</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.181</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4765.339</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-5.272</v>
+      </c>
+      <c r="J3" t="n">
+        <v>48.539</v>
+      </c>
+      <c r="K3" t="n">
+        <v>47.713</v>
+      </c>
+      <c r="L3" t="n">
+        <v>47.839</v>
+      </c>
+      <c r="M3" t="n">
+        <v>47.733</v>
+      </c>
+      <c r="N3" t="n">
+        <v>43.698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3983.366</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3954.939</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.714</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2575.522</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3921.008</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.858</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2476.471</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-3.846</v>
+      </c>
+      <c r="J4" t="n">
+        <v>23.201</v>
+      </c>
+      <c r="K4" t="n">
+        <v>25.27</v>
+      </c>
+      <c r="L4" t="n">
+        <v>24.493</v>
+      </c>
+      <c r="M4" t="n">
+        <v>25.109</v>
+      </c>
+      <c r="N4" t="n">
+        <v>22.709</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1673.448</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1356.765</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-18.924</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1124.769</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1508.041</v>
+      </c>
+      <c r="G5" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1788.962</v>
+      </c>
+      <c r="I5" t="n">
+        <v>59.051</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9.747</v>
+      </c>
+      <c r="K5" t="n">
+        <v>8.669</v>
+      </c>
+      <c r="L5" t="n">
+        <v>10.696</v>
+      </c>
+      <c r="M5" t="n">
+        <v>9.657</v>
+      </c>
+      <c r="N5" t="n">
+        <v>16.405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1203.385</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1074.763</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-10.688</v>
+      </c>
+      <c r="E6" t="n">
+        <v>712.772</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1086.935</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.133</v>
+      </c>
+      <c r="H6" t="n">
+        <v>745.298</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.563</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7.009</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.867</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6.778</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6.961</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.834</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" t="n">
+        <v>856.191</v>
+      </c>
+      <c r="C7" t="n">
+        <v>721.33</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-15.751</v>
+      </c>
+      <c r="E7" t="n">
+        <v>443.065</v>
+      </c>
+      <c r="F7" t="n">
+        <v>677.064</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-6.137</v>
+      </c>
+      <c r="H7" t="n">
+        <v>451.267</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.987</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.609</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.213</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4.336</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8" t="n">
+        <v>433.998</v>
+      </c>
+      <c r="C8" t="n">
+        <v>397.33</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-8.449</v>
+      </c>
+      <c r="E8" t="n">
+        <v>172.073</v>
+      </c>
+      <c r="F8" t="n">
+        <v>289.368</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-27.172</v>
+      </c>
+      <c r="H8" t="n">
+        <v>195.113</v>
+      </c>
+      <c r="I8" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.528</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.539</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.636</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" t="n">
+        <v>196.761</v>
+      </c>
+      <c r="C9" t="n">
+        <v>196.29</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.239</v>
+      </c>
+      <c r="E9" t="n">
+        <v>125.116</v>
+      </c>
+      <c r="F9" t="n">
+        <v>196.534</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="H9" t="n">
+        <v>184.553</v>
+      </c>
+      <c r="I9" t="n">
+        <v>47.505</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.146</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.254</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.259</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.692</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B10" t="n">
+        <v>213.294</v>
+      </c>
+      <c r="C10" t="n">
+        <v>171.938</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-19.389</v>
+      </c>
+      <c r="E10" t="n">
+        <v>102.689</v>
+      </c>
+      <c r="F10" t="n">
+        <v>145.498</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-15.378</v>
+      </c>
+      <c r="H10" t="n">
+        <v>101.438</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-1.218</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.242</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.099</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B11" t="n">
+        <v>127.816</v>
+      </c>
+      <c r="C11" t="n">
+        <v>117.767</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-7.862</v>
+      </c>
+      <c r="E11" t="n">
+        <v>92.98099999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>143.819</v>
+      </c>
+      <c r="G11" t="n">
+        <v>22.122</v>
+      </c>
+      <c r="H11" t="n">
+        <v>79.999</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-13.962</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.744</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.884</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.921</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.734</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B12" t="n">
+        <v>40.754</v>
+      </c>
+      <c r="C12" t="n">
+        <v>40.722</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="E12" t="n">
+        <v>47.788</v>
+      </c>
+      <c r="F12" t="n">
+        <v>71.81</v>
+      </c>
+      <c r="G12" t="n">
+        <v>76.343</v>
+      </c>
+      <c r="H12" t="n">
+        <v>42.958</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-10.106</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B13" t="n">
+        <v>45.402</v>
+      </c>
+      <c r="C13" t="n">
+        <v>53.749</v>
+      </c>
+      <c r="D13" t="n">
+        <v>18.384</v>
+      </c>
+      <c r="E13" t="n">
+        <v>31.916</v>
+      </c>
+      <c r="F13" t="n">
+        <v>47.811</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-11.047</v>
+      </c>
+      <c r="H13" t="n">
+        <v>33.189</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.987</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B14" t="n">
+        <v>36.014</v>
+      </c>
+      <c r="C14" t="n">
+        <v>81.372</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.943</v>
+      </c>
+      <c r="E14" t="n">
+        <v>33.605</v>
+      </c>
+      <c r="F14" t="n">
+        <v>42.992</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-47.166</v>
+      </c>
+      <c r="H14" t="n">
+        <v>24.321</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-27.629</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B15" t="n">
+        <v>21.397</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14.988</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-29.955</v>
+      </c>
+      <c r="E15" t="n">
+        <v>8.693</v>
+      </c>
+      <c r="F15" t="n">
+        <v>16.696</v>
+      </c>
+      <c r="G15" t="n">
+        <v>11.402</v>
+      </c>
+      <c r="H15" t="n">
+        <v>15.659</v>
+      </c>
+      <c r="I15" t="n">
+        <v>80.123</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.609</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-88.43300000000001</v>
+      </c>
+      <c r="E16" t="n">
+        <v>11.176</v>
+      </c>
+      <c r="F16" t="n">
+        <v>11.211</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5924.302</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-95.628</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-46.979</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-82.386</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="I17" t="n">
+        <v>170.489</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.262</v>
+      </c>
+      <c r="D18" t="n">
+        <v>60.897</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-94.928</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="I18" t="n">
+        <v>64.027</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-56.982</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.177</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.378</v>
+      </c>
+      <c r="G19" t="n">
+        <v>564.042</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-99.318</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-36.428</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="G20" t="n">
+        <v>66.188</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-99.283</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="9"/>
     <col bestFit="1" customWidth="1" max="3" min="3" width="10"/>
     <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
